--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\extra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617949AC-8E21-4E04-B664-B4216BD5DC16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6631326A-44EF-4487-BBCA-2FA03BFBC4E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6631326A-44EF-4487-BBCA-2FA03BFBC4E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E501DDA-0715-4BA4-A8DA-FB844C4C3654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E501DDA-0715-4BA4-A8DA-FB844C4C3654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926819BF-2452-4184-91DB-6AE59FD63949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926819BF-2452-4184-91DB-6AE59FD63949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF42B8EA-132E-4B25-91D4-6F2C64EAFB8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF42B8EA-132E-4B25-91D4-6F2C64EAFB8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74D5068-76DE-4F5E-A34E-A61343052E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74D5068-76DE-4F5E-A34E-A61343052E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4759910-EA2A-4D2D-B682-E7C8C2E2D628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4759910-EA2A-4D2D-B682-E7C8C2E2D628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB8E14A-C60F-4568-A6E6-9055C6EE5FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB8E14A-C60F-4568-A6E6-9055C6EE5FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECD484E-F072-4E63-B0BD-D929860DE63A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECD484E-F072-4E63-B0BD-D929860DE63A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911272EC-0A3A-40E3-A8AB-C1925ACAAC44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911272EC-0A3A-40E3-A8AB-C1925ACAAC44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBF5D38-E158-4103-A1FE-B835D18D1948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBF5D38-E158-4103-A1FE-B835D18D1948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F2C84B-5504-4CFD-8762-AEB111E38585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F2C84B-5504-4CFD-8762-AEB111E38585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D358C5DE-F51B-40C6-9ECE-A115411A65F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D358C5DE-F51B-40C6-9ECE-A115411A65F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B9931B-ADF3-46DF-91B5-F4F02857EC86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B9931B-ADF3-46DF-91B5-F4F02857EC86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8139184E-28EE-4268-8284-D66EE66D1EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8139184E-28EE-4268-8284-D66EE66D1EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E01317-D0EC-46DB-97B8-259C0456C180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E01317-D0EC-46DB-97B8-259C0456C180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC6629E-6007-4650-8E79-36AF77385886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC6629E-6007-4650-8E79-36AF77385886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79997575-7EDD-4187-A1BC-4AFA22D15CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79997575-7EDD-4187-A1BC-4AFA22D15CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9064D422-13B3-46BF-AD75-53AE66017DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9064D422-13B3-46BF-AD75-53AE66017DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98976D4A-ABA9-415A-8FB1-717CCDC50E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\Shopping-online-master\extra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98976D4A-ABA9-415A-8FB1-717CCDC50E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0AAE50-E561-42FC-A301-3418E7541571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0AAE50-E561-42FC-A301-3418E7541571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516357D3-13B2-49D3-BA39-1C2F27C99AC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516357D3-13B2-49D3-BA39-1C2F27C99AC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7FC07E-6897-4EE1-8989-FC54074E38CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>90opepwekolw</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>eric@host.com</t>
+  </si>
+  <si>
+    <t>dod@gmail.com</t>
+  </si>
+  <si>
+    <t>Aa123456</t>
   </si>
 </sst>
 </file>
@@ -406,7 +412,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -476,8 +482,12 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
@@ -509,8 +519,9 @@
     <hyperlink ref="B6" r:id="rId4" xr:uid="{495B9379-BC8E-4D44-A204-AA6A9FD4102E}"/>
     <hyperlink ref="B7" r:id="rId5" xr:uid="{01E5DFD6-59C3-400D-844B-6972E77805AC}"/>
     <hyperlink ref="B8" r:id="rId6" xr:uid="{DEE56865-4FE9-4646-8C59-5E3F18772A60}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{F2CFBE7F-02F6-487A-A04B-E52051BFC8D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/extra/passwords.xlsx
+++ b/extra/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\shopping-online-master\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7FC07E-6897-4EE1-8989-FC54074E38CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CB2006-9174-45F9-98D6-E93E502D39AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
